--- a/STA01D.xlsx
+++ b/STA01D.xlsx
@@ -265,7 +265,7 @@
     <t>20137691</t>
   </si>
   <si>
-    <t>ADINATA PENCIL TROPR</t>
+    <t>ADINATA PENC.TROP M3</t>
   </si>
   <si>
     <t>20138868</t>
@@ -379,7 +379,7 @@
     <t>20133801</t>
   </si>
   <si>
-    <t>ADNTA SECRET PEN</t>
+    <t>ADNTA SCRET PEN MIX2</t>
   </si>
   <si>
     <t>20137049</t>
@@ -433,7 +433,7 @@
     <t>20098010</t>
   </si>
   <si>
-    <t>ADNTA UNICORN NOTES</t>
+    <t>ADNTA NOTE STAT.MIX1</t>
   </si>
   <si>
     <t>20098390</t>
